--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H2">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N2">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O2">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P2">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q2">
-        <v>93.99087029558179</v>
+        <v>55.85160002105467</v>
       </c>
       <c r="R2">
-        <v>845.9178326602359</v>
+        <v>502.664400189492</v>
       </c>
       <c r="S2">
-        <v>0.00366517074901325</v>
+        <v>0.002207902588879627</v>
       </c>
       <c r="T2">
-        <v>0.00366517074901325</v>
+        <v>0.002207902588879626</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H3">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.061059</v>
       </c>
       <c r="O3">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P3">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q3">
-        <v>778.2793359509664</v>
+        <v>808.8946858633747</v>
       </c>
       <c r="R3">
-        <v>7004.514023558697</v>
+        <v>7280.052172770372</v>
       </c>
       <c r="S3">
-        <v>0.03034897589221521</v>
+        <v>0.03197689359616294</v>
       </c>
       <c r="T3">
-        <v>0.03034897589221521</v>
+        <v>0.03197689359616294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H4">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N4">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O4">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P4">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q4">
-        <v>5401.799203853362</v>
+        <v>6140.09192640153</v>
       </c>
       <c r="R4">
-        <v>48616.19283468026</v>
+        <v>55260.82733761377</v>
       </c>
       <c r="S4">
-        <v>0.2106429738520793</v>
+        <v>0.2427276005548683</v>
       </c>
       <c r="T4">
-        <v>0.2106429738520792</v>
+        <v>0.2427276005548683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H5">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N5">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O5">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P5">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q5">
-        <v>162.1102795400694</v>
+        <v>46.25358314134178</v>
       </c>
       <c r="R5">
-        <v>1458.992515860625</v>
+        <v>416.282248272076</v>
       </c>
       <c r="S5">
-        <v>0.00632148476565977</v>
+        <v>0.001828477714590622</v>
       </c>
       <c r="T5">
-        <v>0.00632148476565977</v>
+        <v>0.001828477714590621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J6">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N6">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O6">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P6">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q6">
-        <v>156.714548217528</v>
+        <v>89.598921208866</v>
       </c>
       <c r="R6">
-        <v>1410.430933957752</v>
+        <v>806.390290879794</v>
       </c>
       <c r="S6">
-        <v>0.006111078408630401</v>
+        <v>0.003541987875428843</v>
       </c>
       <c r="T6">
-        <v>0.006111078408630399</v>
+        <v>0.003541987875428842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J7">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.061059</v>
       </c>
       <c r="O7">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P7">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q7">
         <v>1297.654699196106</v>
@@ -883,10 +883,10 @@
         <v>11678.89229276495</v>
       </c>
       <c r="S7">
-        <v>0.05060200028849745</v>
+        <v>0.05129835436669362</v>
       </c>
       <c r="T7">
-        <v>0.05060200028849745</v>
+        <v>0.05129835436669362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J8">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N8">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O8">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P8">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q8">
-        <v>9006.624995932985</v>
+        <v>9850.131643882249</v>
       </c>
       <c r="R8">
-        <v>81059.62496339687</v>
+        <v>88651.18479494023</v>
       </c>
       <c r="S8">
-        <v>0.3512130314211688</v>
+        <v>0.3893913719416139</v>
       </c>
       <c r="T8">
-        <v>0.3512130314211688</v>
+        <v>0.3893913719416138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J9">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N9">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O9">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P9">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q9">
-        <v>270.29262671625</v>
+        <v>74.201475874398</v>
       </c>
       <c r="R9">
-        <v>2432.63364044625</v>
+        <v>667.8132828695819</v>
       </c>
       <c r="S9">
-        <v>0.01054005166670879</v>
+        <v>0.002933302369493672</v>
       </c>
       <c r="T9">
-        <v>0.01054005166670879</v>
+        <v>0.002933302369493672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H10">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N10">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O10">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P10">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q10">
-        <v>43.0517178777</v>
+        <v>29.35104687790334</v>
       </c>
       <c r="R10">
-        <v>387.4654608993</v>
+        <v>264.15942190113</v>
       </c>
       <c r="S10">
-        <v>0.001678800255427938</v>
+        <v>0.001160293570168455</v>
       </c>
       <c r="T10">
-        <v>0.001678800255427938</v>
+        <v>0.001160293570168455</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H11">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.061059</v>
       </c>
       <c r="O11">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P11">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q11">
-        <v>356.484223372275</v>
+        <v>425.0890902877034</v>
       </c>
       <c r="R11">
-        <v>3208.358010350475</v>
+        <v>3825.80181258933</v>
       </c>
       <c r="S11">
-        <v>0.01390109000884723</v>
+        <v>0.01680444790474925</v>
       </c>
       <c r="T11">
-        <v>0.01390109000884723</v>
+        <v>0.01680444790474925</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H12">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N12">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O12">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P12">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q12">
-        <v>2474.248133089275</v>
+        <v>3226.731658511294</v>
       </c>
       <c r="R12">
-        <v>22268.23319780348</v>
+        <v>29040.58492660164</v>
       </c>
       <c r="S12">
-        <v>0.09648322070729608</v>
+        <v>0.1275578350443183</v>
       </c>
       <c r="T12">
-        <v>0.09648322070729606</v>
+        <v>0.1275578350443183</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H13">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N13">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O13">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P13">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q13">
-        <v>74.253233296875</v>
+        <v>24.30711182026556</v>
       </c>
       <c r="R13">
-        <v>668.279099671875</v>
+        <v>218.76400638239</v>
       </c>
       <c r="S13">
-        <v>0.002895502274247544</v>
+        <v>0.0009608987942318482</v>
       </c>
       <c r="T13">
-        <v>0.002895502274247544</v>
+        <v>0.0009608987942318481</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H14">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N14">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O14">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P14">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q14">
-        <v>80.74040374253779</v>
+        <v>25.56947589624167</v>
       </c>
       <c r="R14">
-        <v>726.6636336828401</v>
+        <v>230.125283066175</v>
       </c>
       <c r="S14">
-        <v>0.003148469262280894</v>
+        <v>0.001010802054127815</v>
       </c>
       <c r="T14">
-        <v>0.003148469262280893</v>
+        <v>0.001010802054127815</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H15">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.061059</v>
       </c>
       <c r="O15">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P15">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q15">
-        <v>668.5605486101034</v>
+        <v>370.3208711117417</v>
       </c>
       <c r="R15">
-        <v>6017.044937490931</v>
+        <v>3332.887840005675</v>
       </c>
       <c r="S15">
-        <v>0.02607049555987767</v>
+        <v>0.01463937308395007</v>
       </c>
       <c r="T15">
-        <v>0.02607049555987766</v>
+        <v>0.01463937308395007</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H16">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N16">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O16">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P16">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q16">
-        <v>4640.274606285259</v>
+        <v>2811.001519269767</v>
       </c>
       <c r="R16">
-        <v>41762.47145656734</v>
+        <v>25299.0136734279</v>
       </c>
       <c r="S16">
-        <v>0.1809473484058715</v>
+        <v>0.1111233613611896</v>
       </c>
       <c r="T16">
-        <v>0.1809473484058715</v>
+        <v>0.1111233613611896</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H17">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N17">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O17">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P17">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q17">
-        <v>139.2566041756945</v>
+        <v>21.17539835566944</v>
       </c>
       <c r="R17">
-        <v>1253.30943758125</v>
+        <v>190.578585201025</v>
       </c>
       <c r="S17">
-        <v>0.005430306482178239</v>
+        <v>0.0008370971795331763</v>
       </c>
       <c r="T17">
-        <v>0.005430306482178239</v>
+        <v>0.0008370971795331763</v>
       </c>
     </row>
   </sheetData>
